--- a/fluxes_90_main_dataset.xlsx
+++ b/fluxes_90_main_dataset.xlsx
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>7.724153701723403e-10</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.008031310907444635</v>
@@ -1420,7 +1420,7 @@
         <v>1.040174651413546e-16</v>
       </c>
       <c r="D5">
-        <v>1.854623669390962</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3.637333875346307e-05</v>
@@ -1729,7 +1729,7 @@
         <v>0.03786131216958587</v>
       </c>
       <c r="E6">
-        <v>6.633463450004457e-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.777501168650824e-11</v>
@@ -2038,7 +2038,7 @@
         <v>5.089893669441999e-13</v>
       </c>
       <c r="F7">
-        <v>4.560525033849279e-12</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>20.46602111822262</v>
@@ -2347,7 +2347,7 @@
         <v>1.158461603793684e-10</v>
       </c>
       <c r="G8">
-        <v>2.656071690431038</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>4.193861497299111e-14</v>
@@ -2656,7 +2656,7 @@
         <v>3.381294375611549e-22</v>
       </c>
       <c r="H9">
-        <v>3.949961256333809e-08</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>2.320220127437631e-15</v>
@@ -2965,7 +2965,7 @@
         <v>1.891766071716247e-07</v>
       </c>
       <c r="I10">
-        <v>2.698409373895035e-12</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.3246134982996677</v>
@@ -3274,7 +3274,7 @@
         <v>0.2982655475450075</v>
       </c>
       <c r="J11">
-        <v>1.144302296440399e-12</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>9.652153880591587e-17</v>
@@ -3583,7 +3583,7 @@
         <v>1.90940875806584e-08</v>
       </c>
       <c r="K12">
-        <v>0.001224115940274505</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0.1706279042229764</v>
@@ -3892,7 +3892,7 @@
         <v>0.2331344922943199</v>
       </c>
       <c r="L13">
-        <v>4.481726454403472e-05</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>2.840953122286833e-12</v>
@@ -4201,7 +4201,7 @@
         <v>0.001397633375173778</v>
       </c>
       <c r="M14">
-        <v>1.32827173041348e-05</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1.319813388801603e-09</v>
@@ -4510,7 +4510,7 @@
         <v>0.001123202732378106</v>
       </c>
       <c r="N15">
-        <v>5.27391847268594</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>1.916100131346429e-18</v>
@@ -4819,7 +4819,7 @@
         <v>2.223690320979469e-10</v>
       </c>
       <c r="O16">
-        <v>5.833785497424512e-19</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>2.7638203518023e-14</v>
@@ -5128,7 +5128,7 @@
         <v>1.049950849909245e-09</v>
       </c>
       <c r="P17">
-        <v>0.3793862213486013</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0.004376862382239098</v>
@@ -5437,7 +5437,7 @@
         <v>0.01437271244150171</v>
       </c>
       <c r="Q18">
-        <v>6.580225152926951e-34</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0.2396972768403342</v>
@@ -5746,7 +5746,7 @@
         <v>3.417759294024036e-07</v>
       </c>
       <c r="R19">
-        <v>2.739346300845984e-05</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>1.240693170827454e-05</v>
@@ -6055,7 +6055,7 @@
         <v>3.915562331098333e-05</v>
       </c>
       <c r="S20">
-        <v>1.011447201132105e-18</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0.153087177467649</v>
@@ -6364,7 +6364,7 @@
         <v>6.647250283402472e-14</v>
       </c>
       <c r="T21">
-        <v>1.732588705858596e-12</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>1.387580545020061e-05</v>
@@ -6673,7 +6673,7 @@
         <v>1.799975389147912e-38</v>
       </c>
       <c r="U22">
-        <v>5.913390244702271e-05</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1.882611372148823e-07</v>
@@ -6982,7 +6982,7 @@
         <v>3.86871240774272e-20</v>
       </c>
       <c r="V23">
-        <v>1.982777819519089e-38</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>2.175861502044934e-09</v>
@@ -7291,7 +7291,7 @@
         <v>1.077279589155702e-27</v>
       </c>
       <c r="W24">
-        <v>4.741867599192598e-05</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0.03492708331529201</v>
@@ -7600,7 +7600,7 @@
         <v>0.7491128402672517</v>
       </c>
       <c r="X25">
-        <v>0.0009271525648962151</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0.0001923165772565796</v>
@@ -7909,7 +7909,7 @@
         <v>6.35422014034582e-06</v>
       </c>
       <c r="Y26">
-        <v>4.490520188529845e-08</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>2.490254962177439</v>
@@ -8218,7 +8218,7 @@
         <v>0.1417326933012951</v>
       </c>
       <c r="Z27">
-        <v>0.4663252797872594</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>1.734482094398475e-27</v>
@@ -8527,7 +8527,7 @@
         <v>1.004695060030855e-16</v>
       </c>
       <c r="AA28">
-        <v>0.0003875521296202728</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0.0004582549972973469</v>
@@ -8838,7 +8838,7 @@
         <v>6.744704098653273e-12</v>
       </c>
       <c r="AB29">
-        <v>5.768649780218521e-29</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>3.768567073188044e-08</v>
@@ -9147,7 +9147,7 @@
         <v>0.07502962124080066</v>
       </c>
       <c r="AC30">
-        <v>1.5945054290663e-10</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>5.996894935566716e-09</v>
@@ -9456,7 +9456,7 @@
         <v>0.00471384484504758</v>
       </c>
       <c r="AD31">
-        <v>1.354070176736997e-11</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0.2036179034272863</v>
@@ -9765,7 +9765,7 @@
         <v>2.551751773651685e-06</v>
       </c>
       <c r="AE32">
-        <v>0.822220051936174</v>
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>18.32152789307693</v>
@@ -10074,7 +10074,7 @@
         <v>0.1176995205366518</v>
       </c>
       <c r="AF33">
-        <v>3.372803065336411e-14</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <v>3.36081690881959e-06</v>
@@ -10383,7 +10383,7 @@
         <v>12.07347078452928</v>
       </c>
       <c r="AG34">
-        <v>0.2080437481520588</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>0.5062112520892957</v>
@@ -10692,7 +10692,7 @@
         <v>4.425325169730273e-31</v>
       </c>
       <c r="AH35">
-        <v>0.0403350004207035</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>1.00525407483235e-09</v>
@@ -11001,7 +11001,7 @@
         <v>1.427035190040085</v>
       </c>
       <c r="AI36">
-        <v>0.0236886065767746</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
         <v>6.772604780954121</v>
@@ -11310,7 +11310,7 @@
         <v>7.970535211777609e-18</v>
       </c>
       <c r="AJ37">
-        <v>3.220026830369076e-17</v>
+        <v>0</v>
       </c>
       <c r="AK37">
         <v>0.4583723015385899</v>
@@ -11619,7 +11619,7 @@
         <v>4.320233927267706</v>
       </c>
       <c r="AK38">
-        <v>0.03112760163891735</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0.000198819500658195</v>
@@ -11928,7 +11928,7 @@
         <v>0.01961064054216517</v>
       </c>
       <c r="AL39">
-        <v>0.01829357241800362</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>3.8207070708652e-09</v>
@@ -12237,7 +12237,7 @@
         <v>3.809849675222633</v>
       </c>
       <c r="AM40">
-        <v>0.7733665615487654</v>
+        <v>0</v>
       </c>
       <c r="AN40">
         <v>5.262892099119999e-23</v>
@@ -12546,7 +12546,7 @@
         <v>0.007295849119865633</v>
       </c>
       <c r="AN41">
-        <v>3.716765250308922e-05</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>6.438596082569986e-14</v>
@@ -12855,7 +12855,7 @@
         <v>8.035105037767054e-05</v>
       </c>
       <c r="AO42">
-        <v>6.162530704211865e-08</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>0.04196046647232118</v>
@@ -13164,7 +13164,7 @@
         <v>2.066252817924251e-15</v>
       </c>
       <c r="AP43">
-        <v>9.258924200569861e-07</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
         <v>8.401105765415603e-09</v>
@@ -13473,7 +13473,7 @@
         <v>7.804454881850406e-06</v>
       </c>
       <c r="AQ44">
-        <v>0.007040357392541974</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>0.01487013811039833</v>
@@ -13782,7 +13782,7 @@
         <v>6.129532223322678</v>
       </c>
       <c r="AR45">
-        <v>4.719965472029217</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <v>8.755917179881226e-07</v>
@@ -14091,7 +14091,7 @@
         <v>0.1424668141187713</v>
       </c>
       <c r="AS46">
-        <v>2.082698847065467e-22</v>
+        <v>0</v>
       </c>
       <c r="AT46">
         <v>1.964886728081006e-07</v>
@@ -14400,7 +14400,7 @@
         <v>0.002142763221349096</v>
       </c>
       <c r="AT47">
-        <v>4.282784537317369e-05</v>
+        <v>0</v>
       </c>
       <c r="AU47">
         <v>0.1445258949090854</v>
@@ -14709,7 +14709,7 @@
         <v>9.669698589368651e-12</v>
       </c>
       <c r="AU48">
-        <v>7.063741537662894e-16</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>8.970392202489524e-11</v>
@@ -15018,7 +15018,7 @@
         <v>0.1047979794365588</v>
       </c>
       <c r="AV49">
-        <v>2.551164920981472e-26</v>
+        <v>0</v>
       </c>
       <c r="AW49">
         <v>4.769814559086535e-09</v>
@@ -15327,7 +15327,7 @@
         <v>2.163873880500122e-08</v>
       </c>
       <c r="AW50">
-        <v>0.368811319442768</v>
+        <v>0</v>
       </c>
       <c r="AX50">
         <v>2.287632916392496e-24</v>
@@ -15636,7 +15636,7 @@
         <v>2.471326480984598e-14</v>
       </c>
       <c r="AX51">
-        <v>7.862465285529976e-06</v>
+        <v>0</v>
       </c>
       <c r="AY51">
         <v>0.0003094874815034587</v>
@@ -15945,7 +15945,7 @@
         <v>0.008844278065528873</v>
       </c>
       <c r="AY52">
-        <v>0.0003883337252749139</v>
+        <v>0</v>
       </c>
       <c r="AZ52">
         <v>0.0001875927303576619</v>
@@ -16254,7 +16254,7 @@
         <v>0.007688134602234515</v>
       </c>
       <c r="AZ53">
-        <v>4.61305736841889e-15</v>
+        <v>0</v>
       </c>
       <c r="BA53">
         <v>8.064372077361507e-09</v>
@@ -16565,7 +16565,7 @@
         <v>0.004290238336628481</v>
       </c>
       <c r="BA54">
-        <v>1.416725205034714e-06</v>
+        <v>0</v>
       </c>
       <c r="BB54">
         <v>1.838679477236079e-10</v>
@@ -16874,7 +16874,7 @@
         <v>2.559319188570937e-26</v>
       </c>
       <c r="BB55">
-        <v>1.397162421827834</v>
+        <v>0</v>
       </c>
       <c r="BC55">
         <v>0.001645287282868202</v>
@@ -17183,7 +17183,7 @@
         <v>9.630814388779902e-06</v>
       </c>
       <c r="BC56">
-        <v>0.02884715358348224</v>
+        <v>0</v>
       </c>
       <c r="BD56">
         <v>0.005745808261826224</v>
@@ -17492,7 +17492,7 @@
         <v>1.651005785415713e-05</v>
       </c>
       <c r="BD57">
-        <v>0.3800771903169512</v>
+        <v>0</v>
       </c>
       <c r="BE57">
         <v>25.9411916312678</v>
@@ -17801,7 +17801,7 @@
         <v>5.923305497377916e-09</v>
       </c>
       <c r="BE58">
-        <v>0.4445758724693606</v>
+        <v>0</v>
       </c>
       <c r="BF58">
         <v>1.512352743590545e-14</v>
@@ -18110,7 +18110,7 @@
         <v>4.372669617323642e-06</v>
       </c>
       <c r="BF59">
-        <v>6.056120581420364e-09</v>
+        <v>0</v>
       </c>
       <c r="BG59">
         <v>0.0847021660344508</v>
@@ -18419,7 +18419,7 @@
         <v>3.332366018514554e-11</v>
       </c>
       <c r="BG60">
-        <v>1.657634876531149e-27</v>
+        <v>0</v>
       </c>
       <c r="BH60">
         <v>1.928966861251749e-21</v>
@@ -18728,7 +18728,7 @@
         <v>0.0001067805181898744</v>
       </c>
       <c r="BH61">
-        <v>7.74065717200485e-11</v>
+        <v>0</v>
       </c>
       <c r="BI61">
         <v>5.183509554280964e-07</v>
@@ -19037,7 +19037,7 @@
         <v>1.819833469262802e-28</v>
       </c>
       <c r="BI62">
-        <v>0.004795771899666202</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
         <v>1.019966426719388e-09</v>
@@ -19346,7 +19346,7 @@
         <v>1.746747206931444e-11</v>
       </c>
       <c r="BJ63">
-        <v>1.714558091830007e-12</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <v>1.542303892289553e-08</v>
@@ -19655,7 +19655,7 @@
         <v>0.0001059830480037838</v>
       </c>
       <c r="BK64">
-        <v>6.527757620525276e-21</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <v>1.113299288769353e-12</v>
@@ -19964,7 +19964,7 @@
         <v>2.489320311244757e-05</v>
       </c>
       <c r="BL65">
-        <v>3.026158806007831</v>
+        <v>0</v>
       </c>
       <c r="BM65">
         <v>4.16754427231069e-14</v>
@@ -20273,7 +20273,7 @@
         <v>0.0170152815684938</v>
       </c>
       <c r="BM66">
-        <v>3.964473698917659e-07</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <v>2.401767907241544</v>
@@ -20582,7 +20582,7 @@
         <v>1.253020920592332e-07</v>
       </c>
       <c r="BN67">
-        <v>1.0251121172798e-17</v>
+        <v>0</v>
       </c>
       <c r="BO67">
         <v>0.08284914653206076</v>
@@ -20891,7 +20891,7 @@
         <v>0.0001591077214304883</v>
       </c>
       <c r="BO68">
-        <v>1.471731907939916</v>
+        <v>0</v>
       </c>
       <c r="BP68">
         <v>0.06357803553781571</v>
@@ -21200,7 +21200,7 @@
         <v>7.78788796250622</v>
       </c>
       <c r="BP69">
-        <v>0.126100734357833</v>
+        <v>0</v>
       </c>
       <c r="BQ69">
         <v>0.004838994040433192</v>
@@ -21509,7 +21509,7 @@
         <v>3.058545057112176e-05</v>
       </c>
       <c r="BQ70">
-        <v>4.208338479902311e-05</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <v>0.05251872040127842</v>
@@ -21818,7 +21818,7 @@
         <v>2.649485061103127e-07</v>
       </c>
       <c r="BR71">
-        <v>9.725295175360631e-25</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <v>8.587210044162472e-09</v>
@@ -22127,7 +22127,7 @@
         <v>5.033003656041549e-15</v>
       </c>
       <c r="BS72">
-        <v>1.632178583845194</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <v>6.179990951871594e-25</v>
@@ -22436,7 +22436,7 @@
         <v>1.13495017700697e-12</v>
       </c>
       <c r="BT73">
-        <v>4.229989086747644e-06</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <v>1.460461079816324e-47</v>
@@ -22745,7 +22745,7 @@
         <v>2.702883202808818e-06</v>
       </c>
       <c r="BU74">
-        <v>0.005303999214176641</v>
+        <v>0</v>
       </c>
       <c r="BV74">
         <v>2.087518254728743e-17</v>
@@ -23054,7 +23054,7 @@
         <v>1.680640919194631e-08</v>
       </c>
       <c r="BV75">
-        <v>2.344711665157977e-08</v>
+        <v>0</v>
       </c>
       <c r="BW75">
         <v>0.01124549378433999</v>
@@ -23363,7 +23363,7 @@
         <v>0.01467585849915346</v>
       </c>
       <c r="BW76">
-        <v>4.71703169889028e-12</v>
+        <v>0</v>
       </c>
       <c r="BX76">
         <v>2.153493090291527e-05</v>
@@ -23672,7 +23672,7 @@
         <v>0.5875942221052579</v>
       </c>
       <c r="BX77">
-        <v>2.752641927882379</v>
+        <v>0</v>
       </c>
       <c r="BY77">
         <v>0.009941850453762084</v>
@@ -23981,7 +23981,7 @@
         <v>0.7747072400466569</v>
       </c>
       <c r="BY78">
-        <v>6.016451862228298e-22</v>
+        <v>0</v>
       </c>
       <c r="BZ78">
         <v>0.03520430616303337</v>
@@ -24292,7 +24292,7 @@
         <v>1.181429272176337e-06</v>
       </c>
       <c r="BZ79">
-        <v>5.066336413073161e-22</v>
+        <v>0</v>
       </c>
       <c r="CA79">
         <v>4.538220327558674e-08</v>
@@ -24601,7 +24601,7 @@
         <v>4.552907392193481e-05</v>
       </c>
       <c r="CA80">
-        <v>9.367696123802894</v>
+        <v>0</v>
       </c>
       <c r="CB80">
         <v>2.997281893211065e-18</v>
@@ -24910,7 +24910,7 @@
         <v>0.08177490304374303</v>
       </c>
       <c r="CB81">
-        <v>0.006556777985878656</v>
+        <v>0</v>
       </c>
       <c r="CC81">
         <v>0.2689716432173752</v>
@@ -25219,7 +25219,7 @@
         <v>3.007115259546862e-19</v>
       </c>
       <c r="CC82">
-        <v>0.1078802941927743</v>
+        <v>0</v>
       </c>
       <c r="CD82">
         <v>5.128360196005191e-13</v>
@@ -25528,7 +25528,7 @@
         <v>0.114336172595423</v>
       </c>
       <c r="CD83">
-        <v>0.01702610740793767</v>
+        <v>0</v>
       </c>
       <c r="CE83">
         <v>9.961392599979662e-18</v>
@@ -25837,7 +25837,7 @@
         <v>6.481415841513856</v>
       </c>
       <c r="CE84">
-        <v>0.0002260035618200145</v>
+        <v>0</v>
       </c>
       <c r="CF84">
         <v>0.003399724512607208</v>
@@ -26146,7 +26146,7 @@
         <v>1.757991747055864e-09</v>
       </c>
       <c r="CF85">
-        <v>6.001466019258574e-05</v>
+        <v>0</v>
       </c>
       <c r="CG85">
         <v>0.0001943916491650796</v>
@@ -26455,7 +26455,7 @@
         <v>1.416340994158828e-09</v>
       </c>
       <c r="CG86">
-        <v>5.088948261237872e-11</v>
+        <v>0</v>
       </c>
       <c r="CH86">
         <v>0.001513365837158104</v>
@@ -26764,7 +26764,7 @@
         <v>2.083238706522908e-15</v>
       </c>
       <c r="CH87">
-        <v>0.2696499938959108</v>
+        <v>0</v>
       </c>
       <c r="CI87">
         <v>0.0151256204648333</v>
@@ -27073,7 +27073,7 @@
         <v>3.076580799282093e-23</v>
       </c>
       <c r="CI88">
-        <v>0.01439985818718892</v>
+        <v>0</v>
       </c>
       <c r="CJ88">
         <v>0.01171853837536203</v>
@@ -27382,7 +27382,7 @@
         <v>0.1209849392088655</v>
       </c>
       <c r="CJ89">
-        <v>1.870773284747411e-11</v>
+        <v>0</v>
       </c>
       <c r="CK89">
         <v>0.0150827173333328</v>
@@ -27691,7 +27691,7 @@
         <v>2.586475580318097e-10</v>
       </c>
       <c r="CK90">
-        <v>3.927415511019417e-41</v>
+        <v>0</v>
       </c>
       <c r="CL90">
         <v>0.0001319337689792612</v>
@@ -28000,7 +28000,7 @@
         <v>4.760662797995345e-06</v>
       </c>
       <c r="CL91">
-        <v>0.3878591537658461</v>
+        <v>0</v>
       </c>
       <c r="CM91">
         <v>1.995289056659776e-32</v>
@@ -28309,7 +28309,7 @@
         <v>1.775650448999386e-08</v>
       </c>
       <c r="CM92">
-        <v>3.328054832382388e-14</v>
+        <v>0</v>
       </c>
       <c r="CN92">
         <v>3.415753711159719e-08</v>
@@ -28618,7 +28618,7 @@
         <v>6.637807960133396e-20</v>
       </c>
       <c r="CN93">
-        <v>0.0128186062771729</v>
+        <v>0</v>
       </c>
       <c r="CO93">
         <v>0.1026467669170837</v>
@@ -28927,7 +28927,7 @@
         <v>8.908121875827466e-07</v>
       </c>
       <c r="CO94">
-        <v>1.001570858386393e-08</v>
+        <v>0</v>
       </c>
       <c r="CP94">
         <v>0.5439073364543514</v>
@@ -29236,7 +29236,7 @@
         <v>1.611162843961908e-16</v>
       </c>
       <c r="CP95">
-        <v>0.5980793305320048</v>
+        <v>0</v>
       </c>
       <c r="CQ95">
         <v>1.576711894303938e-18</v>
@@ -29545,7 +29545,7 @@
         <v>8.300605933911974e-16</v>
       </c>
       <c r="CQ96">
-        <v>0.3534240977195429</v>
+        <v>0</v>
       </c>
       <c r="CR96">
         <v>0.3405237894354625</v>
@@ -29854,7 +29854,7 @@
         <v>2.104670630202766e-05</v>
       </c>
       <c r="CR97">
-        <v>8.059554351886975e-11</v>
+        <v>0</v>
       </c>
       <c r="CS97">
         <v>1.320816395731002e-06</v>
@@ -30163,7 +30163,7 @@
         <v>0.1266567947460776</v>
       </c>
       <c r="CS98">
-        <v>0.02484851155614123</v>
+        <v>0</v>
       </c>
       <c r="CT98">
         <v>0.02593832020625128</v>
@@ -30472,7 +30472,7 @@
         <v>0.0001067073533197469</v>
       </c>
       <c r="CT99">
-        <v>0.01148601741557666</v>
+        <v>0</v>
       </c>
       <c r="CU99">
         <v>2.221570019579283e-28</v>
@@ -30781,7 +30781,7 @@
         <v>1.941173743813798e-09</v>
       </c>
       <c r="CU100">
-        <v>0.001668582082877794</v>
+        <v>0</v>
       </c>
       <c r="CV100">
         <v>1.265660707143635</v>
@@ -31090,7 +31090,7 @@
         <v>8.031105849123771e-32</v>
       </c>
       <c r="CV101">
-        <v>5.724313392372802e-11</v>
+        <v>0</v>
       </c>
       <c r="CW101">
         <v>0.7428459152427741</v>
@@ -31399,7 +31399,7 @@
         <v>5.913842701568306e-14</v>
       </c>
       <c r="CW102">
-        <v>3.495344789034963e-06</v>
+        <v>0</v>
       </c>
       <c r="CX102">
         <v>0.0001906474382270117</v>
@@ -31708,7 +31708,7 @@
         <v>27.3823895385086</v>
       </c>
       <c r="CX103">
-        <v>4.835118316453006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
